--- a/document/outage and losses.xlsx
+++ b/document/outage and losses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\un_ch\OneDrive\Desktop\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\un_ch\OneDrive\Desktop\makarigad-site\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C376FFE8-780B-4D36-A0E1-70723178F594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0887CC-82C5-421C-8C43-1F70ED6D9CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2357F86A-C546-4169-8FF2-C4155FDED36A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{2357F86A-C546-4169-8FF2-C4155FDED36A}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="157">
   <si>
     <t>Date</t>
   </si>
@@ -881,11 +881,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175357CC-D166-42BD-9B54-16C56C5A92C2}">
-  <dimension ref="A1:K979"/>
+  <dimension ref="A1:K888"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A861" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F876" sqref="F876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22227,1399 +22227,48 @@
       <c r="A882" s="13">
         <v>45881</v>
       </c>
-      <c r="B882" s="9"/>
-      <c r="C882" s="6"/>
-      <c r="D882" s="6"/>
+      <c r="B882" s="9">
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="C882" s="6">
+        <v>62</v>
+      </c>
+      <c r="D882" s="6">
+        <v>1</v>
+      </c>
       <c r="E882" s="6"/>
       <c r="F882" s="6"/>
       <c r="G882" s="6"/>
-      <c r="H882" s="9"/>
-      <c r="I882" s="9"/>
-      <c r="J882" s="9"/>
-      <c r="K882" s="8"/>
+      <c r="H882" s="9">
+        <v>0</v>
+      </c>
+      <c r="I882" s="9">
+        <v>0</v>
+      </c>
+      <c r="J882" s="9">
+        <v>0</v>
+      </c>
+      <c r="K882" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="883" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A883" s="13">
-        <v>45882</v>
-      </c>
-      <c r="B883" s="9"/>
-      <c r="C883" s="6"/>
-      <c r="D883" s="6"/>
-      <c r="E883" s="6"/>
-      <c r="F883" s="6"/>
-      <c r="G883" s="6"/>
-      <c r="H883" s="9"/>
-      <c r="I883" s="9"/>
-      <c r="J883" s="9"/>
-      <c r="K883" s="8"/>
+      <c r="K883" s="10"/>
     </row>
     <row r="884" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A884" s="13">
-        <v>45883</v>
-      </c>
-      <c r="B884" s="9"/>
-      <c r="C884" s="6"/>
-      <c r="D884" s="6"/>
-      <c r="E884" s="6"/>
-      <c r="F884" s="6"/>
-      <c r="G884" s="6"/>
-      <c r="H884" s="9"/>
-      <c r="I884" s="9"/>
-      <c r="J884" s="9"/>
-      <c r="K884" s="8"/>
+      <c r="K884" s="10"/>
     </row>
     <row r="885" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A885" s="13">
-        <v>45884</v>
-      </c>
-      <c r="B885" s="9"/>
-      <c r="C885" s="6"/>
-      <c r="D885" s="6"/>
-      <c r="E885" s="6"/>
-      <c r="F885" s="6"/>
-      <c r="G885" s="6"/>
-      <c r="H885" s="9"/>
-      <c r="I885" s="9"/>
-      <c r="J885" s="9"/>
-      <c r="K885" s="8"/>
+      <c r="K885" s="10"/>
     </row>
     <row r="886" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A886" s="13">
-        <v>45885</v>
-      </c>
-      <c r="B886" s="9"/>
-      <c r="C886" s="6"/>
-      <c r="D886" s="6"/>
-      <c r="E886" s="6"/>
-      <c r="F886" s="6"/>
-      <c r="G886" s="6"/>
-      <c r="H886" s="9"/>
-      <c r="I886" s="9"/>
-      <c r="J886" s="9"/>
-      <c r="K886" s="8"/>
+      <c r="K886" s="10"/>
     </row>
     <row r="887" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A887" s="13">
-        <v>45886</v>
-      </c>
-      <c r="B887" s="9"/>
-      <c r="C887" s="6"/>
-      <c r="D887" s="6"/>
-      <c r="E887" s="6"/>
-      <c r="F887" s="6"/>
-      <c r="G887" s="6"/>
-      <c r="H887" s="9"/>
-      <c r="I887" s="9"/>
-      <c r="J887" s="9"/>
-      <c r="K887" s="8"/>
+      <c r="K887" s="10"/>
     </row>
     <row r="888" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="13">
-        <v>45887</v>
-      </c>
-      <c r="B888" s="9"/>
-      <c r="C888" s="6"/>
-      <c r="D888" s="6"/>
-      <c r="E888" s="6"/>
-      <c r="F888" s="6"/>
-      <c r="G888" s="6"/>
-      <c r="H888" s="9"/>
-      <c r="I888" s="9"/>
-      <c r="J888" s="9"/>
-      <c r="K888" s="8"/>
-    </row>
-    <row r="889" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A889" s="13">
-        <v>45888</v>
-      </c>
-      <c r="B889" s="9"/>
-      <c r="C889" s="6"/>
-      <c r="D889" s="6"/>
-      <c r="E889" s="6"/>
-      <c r="F889" s="6"/>
-      <c r="G889" s="6"/>
-      <c r="H889" s="9"/>
-      <c r="I889" s="9"/>
-      <c r="J889" s="9"/>
-      <c r="K889" s="8"/>
-    </row>
-    <row r="890" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A890" s="13">
-        <v>45889</v>
-      </c>
-      <c r="B890" s="9"/>
-      <c r="C890" s="6"/>
-      <c r="D890" s="6"/>
-      <c r="E890" s="6"/>
-      <c r="F890" s="6"/>
-      <c r="G890" s="6"/>
-      <c r="H890" s="9"/>
-      <c r="I890" s="9"/>
-      <c r="J890" s="9"/>
-      <c r="K890" s="8"/>
-    </row>
-    <row r="891" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A891" s="13">
-        <v>45890</v>
-      </c>
-      <c r="B891" s="9"/>
-      <c r="C891" s="6"/>
-      <c r="D891" s="6"/>
-      <c r="E891" s="6"/>
-      <c r="F891" s="6"/>
-      <c r="G891" s="6"/>
-      <c r="H891" s="9"/>
-      <c r="I891" s="9"/>
-      <c r="J891" s="9"/>
-      <c r="K891" s="8"/>
-    </row>
-    <row r="892" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A892" s="13">
-        <v>45891</v>
-      </c>
-      <c r="B892" s="9"/>
-      <c r="C892" s="6"/>
-      <c r="D892" s="6"/>
-      <c r="E892" s="6"/>
-      <c r="F892" s="6"/>
-      <c r="G892" s="6"/>
-      <c r="H892" s="9"/>
-      <c r="I892" s="9"/>
-      <c r="J892" s="9"/>
-      <c r="K892" s="8"/>
-    </row>
-    <row r="893" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A893" s="13">
-        <v>45892</v>
-      </c>
-      <c r="B893" s="9"/>
-      <c r="C893" s="6"/>
-      <c r="D893" s="6"/>
-      <c r="E893" s="6"/>
-      <c r="F893" s="6"/>
-      <c r="G893" s="6"/>
-      <c r="H893" s="9"/>
-      <c r="I893" s="9"/>
-      <c r="J893" s="9"/>
-      <c r="K893" s="8"/>
-    </row>
-    <row r="894" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="13">
-        <v>45893</v>
-      </c>
-      <c r="B894" s="9"/>
-      <c r="C894" s="6"/>
-      <c r="D894" s="6"/>
-      <c r="E894" s="6"/>
-      <c r="F894" s="6"/>
-      <c r="G894" s="6"/>
-      <c r="H894" s="9"/>
-      <c r="I894" s="9"/>
-      <c r="J894" s="9"/>
-      <c r="K894" s="8"/>
-    </row>
-    <row r="895" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A895" s="13">
-        <v>45894</v>
-      </c>
-      <c r="B895" s="9"/>
-      <c r="C895" s="6"/>
-      <c r="D895" s="6"/>
-      <c r="E895" s="6"/>
-      <c r="F895" s="6"/>
-      <c r="G895" s="6"/>
-      <c r="H895" s="9"/>
-      <c r="I895" s="9"/>
-      <c r="J895" s="9"/>
-      <c r="K895" s="8"/>
-    </row>
-    <row r="896" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A896" s="13">
-        <v>45895</v>
-      </c>
-      <c r="B896" s="9"/>
-      <c r="C896" s="6"/>
-      <c r="D896" s="6"/>
-      <c r="E896" s="6"/>
-      <c r="F896" s="6"/>
-      <c r="G896" s="6"/>
-      <c r="H896" s="9"/>
-      <c r="I896" s="9"/>
-      <c r="J896" s="9"/>
-      <c r="K896" s="8"/>
-    </row>
-    <row r="897" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A897" s="13">
-        <v>45896</v>
-      </c>
-      <c r="B897" s="9"/>
-      <c r="C897" s="6"/>
-      <c r="D897" s="6"/>
-      <c r="E897" s="6"/>
-      <c r="F897" s="6"/>
-      <c r="G897" s="6"/>
-      <c r="H897" s="9"/>
-      <c r="I897" s="9"/>
-      <c r="J897" s="9"/>
-      <c r="K897" s="8"/>
-    </row>
-    <row r="898" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A898" s="13">
-        <v>45897</v>
-      </c>
-      <c r="B898" s="9"/>
-      <c r="C898" s="6"/>
-      <c r="D898" s="6"/>
-      <c r="E898" s="6"/>
-      <c r="F898" s="6"/>
-      <c r="G898" s="6"/>
-      <c r="H898" s="9"/>
-      <c r="I898" s="9"/>
-      <c r="J898" s="9"/>
-      <c r="K898" s="8"/>
-    </row>
-    <row r="899" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A899" s="13">
-        <v>45898</v>
-      </c>
-      <c r="B899" s="9"/>
-      <c r="C899" s="6"/>
-      <c r="D899" s="6"/>
-      <c r="E899" s="6"/>
-      <c r="F899" s="6"/>
-      <c r="G899" s="6"/>
-      <c r="H899" s="9"/>
-      <c r="I899" s="9"/>
-      <c r="J899" s="9"/>
-      <c r="K899" s="8"/>
-    </row>
-    <row r="900" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A900" s="13">
-        <v>45899</v>
-      </c>
-      <c r="B900" s="9"/>
-      <c r="C900" s="6"/>
-      <c r="D900" s="6"/>
-      <c r="E900" s="6"/>
-      <c r="F900" s="6"/>
-      <c r="G900" s="6"/>
-      <c r="H900" s="9"/>
-      <c r="I900" s="9"/>
-      <c r="J900" s="9"/>
-      <c r="K900" s="8"/>
-    </row>
-    <row r="901" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A901" s="13">
-        <v>45900</v>
-      </c>
-      <c r="B901" s="9"/>
-      <c r="C901" s="6"/>
-      <c r="D901" s="6"/>
-      <c r="E901" s="6"/>
-      <c r="F901" s="6"/>
-      <c r="G901" s="6"/>
-      <c r="H901" s="9"/>
-      <c r="I901" s="9"/>
-      <c r="J901" s="9"/>
-      <c r="K901" s="8"/>
-    </row>
-    <row r="902" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A902" s="13">
-        <v>45901</v>
-      </c>
-      <c r="B902" s="9"/>
-      <c r="C902" s="6"/>
-      <c r="D902" s="6"/>
-      <c r="E902" s="6"/>
-      <c r="F902" s="6"/>
-      <c r="G902" s="6"/>
-      <c r="H902" s="9"/>
-      <c r="I902" s="9"/>
-      <c r="J902" s="9"/>
-      <c r="K902" s="8"/>
-    </row>
-    <row r="903" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A903" s="13">
-        <v>45902</v>
-      </c>
-      <c r="B903" s="9"/>
-      <c r="C903" s="6"/>
-      <c r="D903" s="6"/>
-      <c r="E903" s="6"/>
-      <c r="F903" s="6"/>
-      <c r="G903" s="6"/>
-      <c r="H903" s="9"/>
-      <c r="I903" s="9"/>
-      <c r="J903" s="9"/>
-      <c r="K903" s="8"/>
-    </row>
-    <row r="904" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A904" s="13">
-        <v>45903</v>
-      </c>
-      <c r="B904" s="9"/>
-      <c r="C904" s="6"/>
-      <c r="D904" s="6"/>
-      <c r="E904" s="6"/>
-      <c r="F904" s="6"/>
-      <c r="G904" s="6"/>
-      <c r="H904" s="9"/>
-      <c r="I904" s="9"/>
-      <c r="J904" s="9"/>
-      <c r="K904" s="8"/>
-    </row>
-    <row r="905" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A905" s="13">
-        <v>45904</v>
-      </c>
-      <c r="B905" s="9"/>
-      <c r="C905" s="6"/>
-      <c r="D905" s="6"/>
-      <c r="E905" s="6"/>
-      <c r="F905" s="6"/>
-      <c r="G905" s="6"/>
-      <c r="H905" s="9"/>
-      <c r="I905" s="9"/>
-      <c r="J905" s="9"/>
-      <c r="K905" s="8"/>
-    </row>
-    <row r="906" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A906" s="13">
-        <v>45905</v>
-      </c>
-      <c r="B906" s="9"/>
-      <c r="C906" s="6"/>
-      <c r="D906" s="6"/>
-      <c r="E906" s="6"/>
-      <c r="F906" s="6"/>
-      <c r="G906" s="6"/>
-      <c r="H906" s="9"/>
-      <c r="I906" s="9"/>
-      <c r="J906" s="9"/>
-      <c r="K906" s="8"/>
-    </row>
-    <row r="907" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A907" s="13">
-        <v>45906</v>
-      </c>
-      <c r="B907" s="9"/>
-      <c r="C907" s="6"/>
-      <c r="D907" s="6"/>
-      <c r="E907" s="6"/>
-      <c r="F907" s="6"/>
-      <c r="G907" s="6"/>
-      <c r="H907" s="9"/>
-      <c r="I907" s="9"/>
-      <c r="J907" s="9"/>
-      <c r="K907" s="8"/>
-    </row>
-    <row r="908" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A908" s="13">
-        <v>45907</v>
-      </c>
-      <c r="B908" s="9"/>
-      <c r="C908" s="6"/>
-      <c r="D908" s="6"/>
-      <c r="E908" s="6"/>
-      <c r="F908" s="6"/>
-      <c r="G908" s="6"/>
-      <c r="H908" s="9"/>
-      <c r="I908" s="9"/>
-      <c r="J908" s="9"/>
-      <c r="K908" s="8"/>
-    </row>
-    <row r="909" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A909" s="13">
-        <v>45908</v>
-      </c>
-      <c r="B909" s="9"/>
-      <c r="C909" s="6"/>
-      <c r="D909" s="6"/>
-      <c r="E909" s="6"/>
-      <c r="F909" s="6"/>
-      <c r="G909" s="6"/>
-      <c r="H909" s="9"/>
-      <c r="I909" s="9"/>
-      <c r="J909" s="9"/>
-      <c r="K909" s="8"/>
-    </row>
-    <row r="910" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A910" s="13">
-        <v>45909</v>
-      </c>
-      <c r="B910" s="9"/>
-      <c r="C910" s="6"/>
-      <c r="D910" s="6"/>
-      <c r="E910" s="6"/>
-      <c r="F910" s="6"/>
-      <c r="G910" s="6"/>
-      <c r="H910" s="9"/>
-      <c r="I910" s="9"/>
-      <c r="J910" s="9"/>
-      <c r="K910" s="8"/>
-    </row>
-    <row r="911" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A911" s="13">
-        <v>45910</v>
-      </c>
-      <c r="B911" s="9"/>
-      <c r="C911" s="6"/>
-      <c r="D911" s="6"/>
-      <c r="E911" s="6"/>
-      <c r="F911" s="6"/>
-      <c r="G911" s="6"/>
-      <c r="H911" s="9"/>
-      <c r="I911" s="9"/>
-      <c r="J911" s="9"/>
-      <c r="K911" s="8"/>
-    </row>
-    <row r="912" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A912" s="13">
-        <v>45911</v>
-      </c>
-      <c r="B912" s="9"/>
-      <c r="C912" s="6"/>
-      <c r="D912" s="6"/>
-      <c r="E912" s="6"/>
-      <c r="F912" s="6"/>
-      <c r="G912" s="6"/>
-      <c r="H912" s="9"/>
-      <c r="I912" s="9"/>
-      <c r="J912" s="9"/>
-      <c r="K912" s="8"/>
-    </row>
-    <row r="913" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A913" s="13">
-        <v>45912</v>
-      </c>
-      <c r="B913" s="9"/>
-      <c r="C913" s="6"/>
-      <c r="D913" s="6"/>
-      <c r="E913" s="6"/>
-      <c r="F913" s="6"/>
-      <c r="G913" s="6"/>
-      <c r="H913" s="9"/>
-      <c r="I913" s="9"/>
-      <c r="J913" s="9"/>
-      <c r="K913" s="8"/>
-    </row>
-    <row r="914" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A914" s="13">
-        <v>45913</v>
-      </c>
-      <c r="B914" s="9"/>
-      <c r="C914" s="6"/>
-      <c r="D914" s="6"/>
-      <c r="E914" s="6"/>
-      <c r="F914" s="6"/>
-      <c r="G914" s="6"/>
-      <c r="H914" s="9"/>
-      <c r="I914" s="9"/>
-      <c r="J914" s="9"/>
-      <c r="K914" s="8"/>
-    </row>
-    <row r="915" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A915" s="13">
-        <v>45914</v>
-      </c>
-      <c r="B915" s="9"/>
-      <c r="C915" s="6"/>
-      <c r="D915" s="6"/>
-      <c r="E915" s="6"/>
-      <c r="F915" s="6"/>
-      <c r="G915" s="6"/>
-      <c r="H915" s="9"/>
-      <c r="I915" s="9"/>
-      <c r="J915" s="9"/>
-      <c r="K915" s="8"/>
-    </row>
-    <row r="916" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A916" s="13">
-        <v>45915</v>
-      </c>
-      <c r="B916" s="9"/>
-      <c r="C916" s="6"/>
-      <c r="D916" s="6"/>
-      <c r="E916" s="6"/>
-      <c r="F916" s="6"/>
-      <c r="G916" s="6"/>
-      <c r="H916" s="9"/>
-      <c r="I916" s="9"/>
-      <c r="J916" s="9"/>
-      <c r="K916" s="8"/>
-    </row>
-    <row r="917" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A917" s="13">
-        <v>45916</v>
-      </c>
-      <c r="B917" s="9"/>
-      <c r="C917" s="6"/>
-      <c r="D917" s="6"/>
-      <c r="E917" s="6"/>
-      <c r="F917" s="6"/>
-      <c r="G917" s="6"/>
-      <c r="H917" s="9"/>
-      <c r="I917" s="9"/>
-      <c r="J917" s="9"/>
-      <c r="K917" s="8"/>
-    </row>
-    <row r="918" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A918" s="13">
-        <v>45917</v>
-      </c>
-      <c r="B918" s="9"/>
-      <c r="C918" s="6"/>
-      <c r="D918" s="6"/>
-      <c r="E918" s="6"/>
-      <c r="F918" s="6"/>
-      <c r="G918" s="6"/>
-      <c r="H918" s="9"/>
-      <c r="I918" s="9"/>
-      <c r="J918" s="9"/>
-      <c r="K918" s="8"/>
-    </row>
-    <row r="919" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A919" s="13">
-        <v>45918</v>
-      </c>
-      <c r="B919" s="9"/>
-      <c r="C919" s="6"/>
-      <c r="D919" s="6"/>
-      <c r="E919" s="6"/>
-      <c r="F919" s="6"/>
-      <c r="G919" s="6"/>
-      <c r="H919" s="9"/>
-      <c r="I919" s="9"/>
-      <c r="J919" s="9"/>
-      <c r="K919" s="8"/>
-    </row>
-    <row r="920" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A920" s="13">
-        <v>45919</v>
-      </c>
-      <c r="B920" s="9"/>
-      <c r="C920" s="6"/>
-      <c r="D920" s="6"/>
-      <c r="E920" s="6"/>
-      <c r="F920" s="6"/>
-      <c r="G920" s="6"/>
-      <c r="H920" s="9"/>
-      <c r="I920" s="9"/>
-      <c r="J920" s="9"/>
-      <c r="K920" s="8"/>
-    </row>
-    <row r="921" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A921" s="13">
-        <v>45920</v>
-      </c>
-      <c r="B921" s="9"/>
-      <c r="C921" s="6"/>
-      <c r="D921" s="6"/>
-      <c r="E921" s="6"/>
-      <c r="F921" s="6"/>
-      <c r="G921" s="6"/>
-      <c r="H921" s="9"/>
-      <c r="I921" s="9"/>
-      <c r="J921" s="9"/>
-      <c r="K921" s="8"/>
-    </row>
-    <row r="922" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A922" s="13">
-        <v>45921</v>
-      </c>
-      <c r="B922" s="9"/>
-      <c r="C922" s="6"/>
-      <c r="D922" s="6"/>
-      <c r="E922" s="6"/>
-      <c r="F922" s="6"/>
-      <c r="G922" s="6"/>
-      <c r="H922" s="9"/>
-      <c r="I922" s="9"/>
-      <c r="J922" s="9"/>
-      <c r="K922" s="8"/>
-    </row>
-    <row r="923" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A923" s="13">
-        <v>45922</v>
-      </c>
-      <c r="B923" s="9"/>
-      <c r="C923" s="6"/>
-      <c r="D923" s="6"/>
-      <c r="E923" s="6"/>
-      <c r="F923" s="6"/>
-      <c r="G923" s="6"/>
-      <c r="H923" s="9"/>
-      <c r="I923" s="9"/>
-      <c r="J923" s="9"/>
-      <c r="K923" s="8"/>
-    </row>
-    <row r="924" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A924" s="13">
-        <v>45923</v>
-      </c>
-      <c r="B924" s="9"/>
-      <c r="C924" s="6"/>
-      <c r="D924" s="6"/>
-      <c r="E924" s="6"/>
-      <c r="F924" s="6"/>
-      <c r="G924" s="6"/>
-      <c r="H924" s="9"/>
-      <c r="I924" s="9"/>
-      <c r="J924" s="9"/>
-      <c r="K924" s="8"/>
-    </row>
-    <row r="925" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A925" s="13">
-        <v>45924</v>
-      </c>
-      <c r="B925" s="9"/>
-      <c r="C925" s="6"/>
-      <c r="D925" s="6"/>
-      <c r="E925" s="6"/>
-      <c r="F925" s="6"/>
-      <c r="G925" s="6"/>
-      <c r="H925" s="9"/>
-      <c r="I925" s="9"/>
-      <c r="J925" s="9"/>
-      <c r="K925" s="8"/>
-    </row>
-    <row r="926" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A926" s="13">
-        <v>45925</v>
-      </c>
-      <c r="B926" s="9"/>
-      <c r="C926" s="6"/>
-      <c r="D926" s="6"/>
-      <c r="E926" s="6"/>
-      <c r="F926" s="6"/>
-      <c r="G926" s="6"/>
-      <c r="H926" s="9"/>
-      <c r="I926" s="9"/>
-      <c r="J926" s="9"/>
-      <c r="K926" s="8"/>
-    </row>
-    <row r="927" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A927" s="13">
-        <v>45926</v>
-      </c>
-      <c r="B927" s="9"/>
-      <c r="C927" s="6"/>
-      <c r="D927" s="6"/>
-      <c r="E927" s="6"/>
-      <c r="F927" s="6"/>
-      <c r="G927" s="6"/>
-      <c r="H927" s="9"/>
-      <c r="I927" s="9"/>
-      <c r="J927" s="9"/>
-      <c r="K927" s="8"/>
-    </row>
-    <row r="928" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A928" s="13">
-        <v>45927</v>
-      </c>
-      <c r="B928" s="9"/>
-      <c r="C928" s="6"/>
-      <c r="D928" s="6"/>
-      <c r="E928" s="6"/>
-      <c r="F928" s="6"/>
-      <c r="G928" s="6"/>
-      <c r="H928" s="9"/>
-      <c r="I928" s="9"/>
-      <c r="J928" s="9"/>
-      <c r="K928" s="8"/>
-    </row>
-    <row r="929" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A929" s="13">
-        <v>45928</v>
-      </c>
-      <c r="B929" s="9"/>
-      <c r="C929" s="6"/>
-      <c r="D929" s="6"/>
-      <c r="E929" s="6"/>
-      <c r="F929" s="6"/>
-      <c r="G929" s="6"/>
-      <c r="H929" s="9"/>
-      <c r="I929" s="9"/>
-      <c r="J929" s="9"/>
-      <c r="K929" s="8"/>
-    </row>
-    <row r="930" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A930" s="13">
-        <v>45929</v>
-      </c>
-      <c r="B930" s="9"/>
-      <c r="C930" s="6"/>
-      <c r="D930" s="6"/>
-      <c r="E930" s="6"/>
-      <c r="F930" s="6"/>
-      <c r="G930" s="6"/>
-      <c r="H930" s="9"/>
-      <c r="I930" s="9"/>
-      <c r="J930" s="9"/>
-      <c r="K930" s="8"/>
-    </row>
-    <row r="931" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A931" s="13">
-        <v>45930</v>
-      </c>
-      <c r="B931" s="9"/>
-      <c r="C931" s="6"/>
-      <c r="D931" s="6"/>
-      <c r="E931" s="6"/>
-      <c r="F931" s="6"/>
-      <c r="G931" s="6"/>
-      <c r="H931" s="9"/>
-      <c r="I931" s="9"/>
-      <c r="J931" s="9"/>
-      <c r="K931" s="8"/>
-    </row>
-    <row r="932" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A932" s="13">
-        <v>45931</v>
-      </c>
-      <c r="B932" s="9"/>
-      <c r="C932" s="6"/>
-      <c r="D932" s="6"/>
-      <c r="E932" s="6"/>
-      <c r="F932" s="6"/>
-      <c r="G932" s="6"/>
-      <c r="H932" s="9"/>
-      <c r="I932" s="9"/>
-      <c r="J932" s="9"/>
-      <c r="K932" s="8"/>
-    </row>
-    <row r="933" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A933" s="13">
-        <v>45932</v>
-      </c>
-      <c r="B933" s="9"/>
-      <c r="C933" s="6"/>
-      <c r="D933" s="6"/>
-      <c r="E933" s="6"/>
-      <c r="F933" s="6"/>
-      <c r="G933" s="6"/>
-      <c r="H933" s="9"/>
-      <c r="I933" s="9"/>
-      <c r="J933" s="9"/>
-      <c r="K933" s="8"/>
-    </row>
-    <row r="934" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A934" s="13">
-        <v>45933</v>
-      </c>
-      <c r="B934" s="9"/>
-      <c r="C934" s="6"/>
-      <c r="D934" s="6"/>
-      <c r="E934" s="6"/>
-      <c r="F934" s="6"/>
-      <c r="G934" s="6"/>
-      <c r="H934" s="9"/>
-      <c r="I934" s="9"/>
-      <c r="J934" s="9"/>
-      <c r="K934" s="8"/>
-    </row>
-    <row r="935" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A935" s="13">
-        <v>45934</v>
-      </c>
-      <c r="B935" s="9"/>
-      <c r="C935" s="6"/>
-      <c r="D935" s="6"/>
-      <c r="E935" s="6"/>
-      <c r="F935" s="6"/>
-      <c r="G935" s="6"/>
-      <c r="H935" s="9"/>
-      <c r="I935" s="9"/>
-      <c r="J935" s="9"/>
-      <c r="K935" s="8"/>
-    </row>
-    <row r="936" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A936" s="13">
-        <v>45935</v>
-      </c>
-      <c r="B936" s="9"/>
-      <c r="C936" s="6"/>
-      <c r="D936" s="6"/>
-      <c r="E936" s="6"/>
-      <c r="F936" s="6"/>
-      <c r="G936" s="6"/>
-      <c r="H936" s="9"/>
-      <c r="I936" s="9"/>
-      <c r="J936" s="9"/>
-      <c r="K936" s="8"/>
-    </row>
-    <row r="937" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A937" s="13">
-        <v>45936</v>
-      </c>
-      <c r="B937" s="9"/>
-      <c r="C937" s="6"/>
-      <c r="D937" s="6"/>
-      <c r="E937" s="6"/>
-      <c r="F937" s="6"/>
-      <c r="G937" s="6"/>
-      <c r="H937" s="9"/>
-      <c r="I937" s="9"/>
-      <c r="J937" s="9"/>
-      <c r="K937" s="8"/>
-    </row>
-    <row r="938" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A938" s="13">
-        <v>45937</v>
-      </c>
-      <c r="B938" s="9"/>
-      <c r="C938" s="6"/>
-      <c r="D938" s="6"/>
-      <c r="E938" s="6"/>
-      <c r="F938" s="6"/>
-      <c r="G938" s="6"/>
-      <c r="H938" s="9"/>
-      <c r="I938" s="9"/>
-      <c r="J938" s="9"/>
-      <c r="K938" s="8"/>
-    </row>
-    <row r="939" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A939" s="13">
-        <v>45938</v>
-      </c>
-      <c r="B939" s="9"/>
-      <c r="C939" s="6"/>
-      <c r="D939" s="6"/>
-      <c r="E939" s="6"/>
-      <c r="F939" s="6"/>
-      <c r="G939" s="6"/>
-      <c r="H939" s="9"/>
-      <c r="I939" s="9"/>
-      <c r="J939" s="9"/>
-      <c r="K939" s="8"/>
-    </row>
-    <row r="940" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A940" s="13">
-        <v>45939</v>
-      </c>
-      <c r="B940" s="9"/>
-      <c r="C940" s="6"/>
-      <c r="D940" s="6"/>
-      <c r="E940" s="6"/>
-      <c r="F940" s="6"/>
-      <c r="G940" s="6"/>
-      <c r="H940" s="9"/>
-      <c r="I940" s="9"/>
-      <c r="J940" s="9"/>
-      <c r="K940" s="8"/>
-    </row>
-    <row r="941" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A941" s="13">
-        <v>45940</v>
-      </c>
-      <c r="B941" s="9"/>
-      <c r="C941" s="6"/>
-      <c r="D941" s="6"/>
-      <c r="E941" s="6"/>
-      <c r="F941" s="6"/>
-      <c r="G941" s="6"/>
-      <c r="H941" s="9"/>
-      <c r="I941" s="9"/>
-      <c r="J941" s="9"/>
-      <c r="K941" s="8"/>
-    </row>
-    <row r="942" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A942" s="13">
-        <v>45941</v>
-      </c>
-      <c r="B942" s="9"/>
-      <c r="C942" s="6"/>
-      <c r="D942" s="6"/>
-      <c r="E942" s="6"/>
-      <c r="F942" s="6"/>
-      <c r="G942" s="6"/>
-      <c r="H942" s="9"/>
-      <c r="I942" s="9"/>
-      <c r="J942" s="9"/>
-      <c r="K942" s="8"/>
-    </row>
-    <row r="943" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A943" s="13">
-        <v>45942</v>
-      </c>
-      <c r="B943" s="9"/>
-      <c r="C943" s="6"/>
-      <c r="D943" s="6"/>
-      <c r="E943" s="6"/>
-      <c r="F943" s="6"/>
-      <c r="G943" s="6"/>
-      <c r="H943" s="9"/>
-      <c r="I943" s="9"/>
-      <c r="J943" s="9"/>
-      <c r="K943" s="8"/>
-    </row>
-    <row r="944" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A944" s="13">
-        <v>45943</v>
-      </c>
-      <c r="B944" s="9"/>
-      <c r="C944" s="6"/>
-      <c r="D944" s="6"/>
-      <c r="E944" s="6"/>
-      <c r="F944" s="6"/>
-      <c r="G944" s="6"/>
-      <c r="H944" s="9"/>
-      <c r="I944" s="9"/>
-      <c r="J944" s="9"/>
-      <c r="K944" s="8"/>
-    </row>
-    <row r="945" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A945" s="13">
-        <v>45944</v>
-      </c>
-      <c r="B945" s="9"/>
-      <c r="C945" s="6"/>
-      <c r="D945" s="6"/>
-      <c r="E945" s="6"/>
-      <c r="F945" s="6"/>
-      <c r="G945" s="6"/>
-      <c r="H945" s="9"/>
-      <c r="I945" s="9"/>
-      <c r="J945" s="9"/>
-      <c r="K945" s="8"/>
-    </row>
-    <row r="946" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A946" s="13">
-        <v>45945</v>
-      </c>
-      <c r="B946" s="9"/>
-      <c r="C946" s="6"/>
-      <c r="D946" s="6"/>
-      <c r="E946" s="6"/>
-      <c r="F946" s="6"/>
-      <c r="G946" s="6"/>
-      <c r="H946" s="9"/>
-      <c r="I946" s="9"/>
-      <c r="J946" s="9"/>
-      <c r="K946" s="8"/>
-    </row>
-    <row r="947" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A947" s="13">
-        <v>45946</v>
-      </c>
-      <c r="B947" s="9"/>
-      <c r="C947" s="6"/>
-      <c r="D947" s="6"/>
-      <c r="E947" s="6"/>
-      <c r="F947" s="6"/>
-      <c r="G947" s="6"/>
-      <c r="H947" s="9"/>
-      <c r="I947" s="9"/>
-      <c r="J947" s="9"/>
-      <c r="K947" s="8"/>
-    </row>
-    <row r="948" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A948" s="13">
-        <v>45947</v>
-      </c>
-      <c r="B948" s="9"/>
-      <c r="C948" s="6"/>
-      <c r="D948" s="6"/>
-      <c r="E948" s="6"/>
-      <c r="F948" s="6"/>
-      <c r="G948" s="6"/>
-      <c r="H948" s="9"/>
-      <c r="I948" s="9"/>
-      <c r="J948" s="9"/>
-      <c r="K948" s="8"/>
-    </row>
-    <row r="949" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A949" s="13">
-        <v>45948</v>
-      </c>
-      <c r="B949" s="9"/>
-      <c r="C949" s="6"/>
-      <c r="D949" s="6"/>
-      <c r="E949" s="6"/>
-      <c r="F949" s="6"/>
-      <c r="G949" s="6"/>
-      <c r="H949" s="9"/>
-      <c r="I949" s="9"/>
-      <c r="J949" s="9"/>
-      <c r="K949" s="8"/>
-    </row>
-    <row r="950" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A950" s="13">
-        <v>45949</v>
-      </c>
-      <c r="B950" s="9"/>
-      <c r="C950" s="6"/>
-      <c r="D950" s="6"/>
-      <c r="E950" s="6"/>
-      <c r="F950" s="6"/>
-      <c r="G950" s="6"/>
-      <c r="H950" s="9"/>
-      <c r="I950" s="9"/>
-      <c r="J950" s="9"/>
-      <c r="K950" s="8"/>
-    </row>
-    <row r="951" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A951" s="13">
-        <v>45950</v>
-      </c>
-      <c r="B951" s="9"/>
-      <c r="C951" s="6"/>
-      <c r="D951" s="6"/>
-      <c r="E951" s="6"/>
-      <c r="F951" s="6"/>
-      <c r="G951" s="6"/>
-      <c r="H951" s="9"/>
-      <c r="I951" s="9"/>
-      <c r="J951" s="9"/>
-      <c r="K951" s="8"/>
-    </row>
-    <row r="952" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A952" s="13">
-        <v>45951</v>
-      </c>
-      <c r="B952" s="9"/>
-      <c r="C952" s="6"/>
-      <c r="D952" s="6"/>
-      <c r="E952" s="6"/>
-      <c r="F952" s="6"/>
-      <c r="G952" s="6"/>
-      <c r="H952" s="9"/>
-      <c r="I952" s="9"/>
-      <c r="J952" s="9"/>
-      <c r="K952" s="8"/>
-    </row>
-    <row r="953" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A953" s="13">
-        <v>45952</v>
-      </c>
-      <c r="B953" s="9"/>
-      <c r="C953" s="6"/>
-      <c r="D953" s="6"/>
-      <c r="E953" s="6"/>
-      <c r="F953" s="6"/>
-      <c r="G953" s="6"/>
-      <c r="H953" s="9"/>
-      <c r="I953" s="9"/>
-      <c r="J953" s="9"/>
-      <c r="K953" s="8"/>
-    </row>
-    <row r="954" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A954" s="13">
-        <v>45953</v>
-      </c>
-      <c r="B954" s="9"/>
-      <c r="C954" s="6"/>
-      <c r="D954" s="6"/>
-      <c r="E954" s="6"/>
-      <c r="F954" s="6"/>
-      <c r="G954" s="6"/>
-      <c r="H954" s="9"/>
-      <c r="I954" s="9"/>
-      <c r="J954" s="9"/>
-      <c r="K954" s="8"/>
-    </row>
-    <row r="955" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A955" s="13">
-        <v>45954</v>
-      </c>
-      <c r="B955" s="9"/>
-      <c r="C955" s="6"/>
-      <c r="D955" s="6"/>
-      <c r="E955" s="6"/>
-      <c r="F955" s="6"/>
-      <c r="G955" s="6"/>
-      <c r="H955" s="9"/>
-      <c r="I955" s="9"/>
-      <c r="J955" s="9"/>
-      <c r="K955" s="8"/>
-    </row>
-    <row r="956" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A956" s="13">
-        <v>45955</v>
-      </c>
-      <c r="B956" s="9"/>
-      <c r="C956" s="6"/>
-      <c r="D956" s="6"/>
-      <c r="E956" s="6"/>
-      <c r="F956" s="6"/>
-      <c r="G956" s="6"/>
-      <c r="H956" s="9"/>
-      <c r="I956" s="9"/>
-      <c r="J956" s="9"/>
-      <c r="K956" s="8"/>
-    </row>
-    <row r="957" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A957" s="13">
-        <v>45956</v>
-      </c>
-      <c r="B957" s="9"/>
-      <c r="C957" s="6"/>
-      <c r="D957" s="6"/>
-      <c r="E957" s="6"/>
-      <c r="F957" s="6"/>
-      <c r="G957" s="6"/>
-      <c r="H957" s="9"/>
-      <c r="I957" s="9"/>
-      <c r="J957" s="9"/>
-      <c r="K957" s="8"/>
-    </row>
-    <row r="958" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A958" s="13">
-        <v>45957</v>
-      </c>
-      <c r="B958" s="9"/>
-      <c r="C958" s="6"/>
-      <c r="D958" s="6"/>
-      <c r="E958" s="6"/>
-      <c r="F958" s="6"/>
-      <c r="G958" s="6"/>
-      <c r="H958" s="9"/>
-      <c r="I958" s="9"/>
-      <c r="J958" s="9"/>
-      <c r="K958" s="8"/>
-    </row>
-    <row r="959" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A959" s="13">
-        <v>45958</v>
-      </c>
-      <c r="B959" s="9"/>
-      <c r="C959" s="6"/>
-      <c r="D959" s="6"/>
-      <c r="E959" s="6"/>
-      <c r="F959" s="6"/>
-      <c r="G959" s="6"/>
-      <c r="H959" s="9"/>
-      <c r="I959" s="9"/>
-      <c r="J959" s="9"/>
-      <c r="K959" s="8"/>
-    </row>
-    <row r="960" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A960" s="13">
-        <v>45959</v>
-      </c>
-      <c r="B960" s="9"/>
-      <c r="C960" s="6"/>
-      <c r="D960" s="6"/>
-      <c r="E960" s="6"/>
-      <c r="F960" s="6"/>
-      <c r="G960" s="6"/>
-      <c r="H960" s="9"/>
-      <c r="I960" s="9"/>
-      <c r="J960" s="9"/>
-      <c r="K960" s="8"/>
-    </row>
-    <row r="961" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A961" s="13">
-        <v>45960</v>
-      </c>
-      <c r="B961" s="9"/>
-      <c r="C961" s="6"/>
-      <c r="D961" s="6"/>
-      <c r="E961" s="6"/>
-      <c r="F961" s="6"/>
-      <c r="G961" s="6"/>
-      <c r="H961" s="9"/>
-      <c r="I961" s="9"/>
-      <c r="J961" s="9"/>
-      <c r="K961" s="8"/>
-    </row>
-    <row r="962" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A962" s="13">
-        <v>45961</v>
-      </c>
-      <c r="B962" s="9"/>
-      <c r="C962" s="6"/>
-      <c r="D962" s="6"/>
-      <c r="E962" s="6"/>
-      <c r="F962" s="6"/>
-      <c r="G962" s="6"/>
-      <c r="H962" s="9"/>
-      <c r="I962" s="9"/>
-      <c r="J962" s="9"/>
-      <c r="K962" s="8"/>
-    </row>
-    <row r="963" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A963" s="13">
-        <v>45962</v>
-      </c>
-      <c r="B963" s="9"/>
-      <c r="C963" s="6"/>
-      <c r="D963" s="6"/>
-      <c r="E963" s="6"/>
-      <c r="F963" s="6"/>
-      <c r="G963" s="6"/>
-      <c r="H963" s="9"/>
-      <c r="I963" s="9"/>
-      <c r="J963" s="9"/>
-      <c r="K963" s="8"/>
-    </row>
-    <row r="964" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A964" s="13">
-        <v>45963</v>
-      </c>
-      <c r="B964" s="9"/>
-      <c r="C964" s="6"/>
-      <c r="D964" s="6"/>
-      <c r="E964" s="6"/>
-      <c r="F964" s="6"/>
-      <c r="G964" s="6"/>
-      <c r="H964" s="9"/>
-      <c r="I964" s="9"/>
-      <c r="J964" s="9"/>
-      <c r="K964" s="8"/>
-    </row>
-    <row r="965" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A965" s="13">
-        <v>45964</v>
-      </c>
-      <c r="B965" s="9"/>
-      <c r="C965" s="6"/>
-      <c r="D965" s="6"/>
-      <c r="E965" s="6"/>
-      <c r="F965" s="6"/>
-      <c r="G965" s="6"/>
-      <c r="H965" s="9"/>
-      <c r="I965" s="9"/>
-      <c r="J965" s="9"/>
-      <c r="K965" s="8"/>
-    </row>
-    <row r="966" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A966" s="13">
-        <v>45965</v>
-      </c>
-      <c r="B966" s="9"/>
-      <c r="C966" s="6"/>
-      <c r="D966" s="6"/>
-      <c r="E966" s="6"/>
-      <c r="F966" s="6"/>
-      <c r="G966" s="6"/>
-      <c r="H966" s="9"/>
-      <c r="I966" s="9"/>
-      <c r="J966" s="9"/>
-      <c r="K966" s="8"/>
-    </row>
-    <row r="967" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A967" s="13">
-        <v>45966</v>
-      </c>
-      <c r="B967" s="9"/>
-      <c r="C967" s="6"/>
-      <c r="D967" s="6"/>
-      <c r="E967" s="6"/>
-      <c r="F967" s="6"/>
-      <c r="G967" s="6"/>
-      <c r="H967" s="9"/>
-      <c r="I967" s="9"/>
-      <c r="J967" s="9"/>
-      <c r="K967" s="8"/>
-    </row>
-    <row r="968" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A968" s="13">
-        <v>45967</v>
-      </c>
-      <c r="B968" s="9"/>
-      <c r="C968" s="6"/>
-      <c r="D968" s="6"/>
-      <c r="E968" s="6"/>
-      <c r="F968" s="6"/>
-      <c r="G968" s="6"/>
-      <c r="H968" s="9"/>
-      <c r="I968" s="9"/>
-      <c r="J968" s="9"/>
-      <c r="K968" s="8"/>
-    </row>
-    <row r="969" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A969" s="13">
-        <v>45968</v>
-      </c>
-      <c r="B969" s="9"/>
-      <c r="C969" s="6"/>
-      <c r="D969" s="6"/>
-      <c r="E969" s="6"/>
-      <c r="F969" s="6"/>
-      <c r="G969" s="6"/>
-      <c r="H969" s="9"/>
-      <c r="I969" s="9"/>
-      <c r="J969" s="9"/>
-      <c r="K969" s="8"/>
-    </row>
-    <row r="970" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A970" s="13">
-        <v>45969</v>
-      </c>
-      <c r="B970" s="9"/>
-      <c r="C970" s="6"/>
-      <c r="D970" s="6"/>
-      <c r="E970" s="6"/>
-      <c r="F970" s="6"/>
-      <c r="G970" s="6"/>
-      <c r="H970" s="9"/>
-      <c r="I970" s="9"/>
-      <c r="J970" s="9"/>
-      <c r="K970" s="8"/>
-    </row>
-    <row r="971" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A971" s="13">
-        <v>45970</v>
-      </c>
-      <c r="B971" s="9"/>
-      <c r="C971" s="6"/>
-      <c r="D971" s="6"/>
-      <c r="E971" s="6"/>
-      <c r="F971" s="6"/>
-      <c r="G971" s="6"/>
-      <c r="H971" s="9"/>
-      <c r="I971" s="9"/>
-      <c r="J971" s="9"/>
-      <c r="K971" s="8"/>
-    </row>
-    <row r="972" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A972" s="13">
-        <v>45971</v>
-      </c>
-      <c r="B972" s="9"/>
-      <c r="C972" s="6"/>
-      <c r="D972" s="6"/>
-      <c r="E972" s="6"/>
-      <c r="F972" s="6"/>
-      <c r="G972" s="6"/>
-      <c r="H972" s="9"/>
-      <c r="I972" s="9"/>
-      <c r="J972" s="9"/>
-      <c r="K972" s="8"/>
-    </row>
-    <row r="973" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A973" s="13">
-        <v>45972</v>
-      </c>
-      <c r="B973" s="9"/>
-      <c r="C973" s="6"/>
-      <c r="D973" s="6"/>
-      <c r="E973" s="6"/>
-      <c r="F973" s="6"/>
-      <c r="G973" s="6"/>
-      <c r="H973" s="9"/>
-      <c r="I973" s="9"/>
-      <c r="J973" s="9"/>
-      <c r="K973" s="8"/>
-    </row>
-    <row r="974" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K974" s="10"/>
-    </row>
-    <row r="975" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K975" s="10"/>
-    </row>
-    <row r="976" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K976" s="10"/>
-    </row>
-    <row r="977" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K977" s="10"/>
-    </row>
-    <row r="978" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K978" s="10"/>
-    </row>
-    <row r="979" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K979" s="10"/>
+      <c r="K888" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/document/outage and losses.xlsx
+++ b/document/outage and losses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\un_ch\OneDrive\Desktop\makarigad-site\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0887CC-82C5-421C-8C43-1F70ED6D9CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8973F4-AE88-4264-8FDD-A8B0316BE6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{2357F86A-C546-4169-8FF2-C4155FDED36A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="160">
   <si>
     <t>Date</t>
   </si>
@@ -508,6 +508,15 @@
   <si>
     <t>Loss Time (Min)</t>
   </si>
+  <si>
+    <t>Grid Faults+ shutdown plant for maintenance works</t>
+  </si>
+  <si>
+    <t>Two phase of transmission line damaged by rockfall at Bitule</t>
+  </si>
+  <si>
+    <t>Shutdown of Unit II due to high pressure in MIV tank</t>
+  </si>
 </sst>
 </file>
 
@@ -884,8 +893,8 @@
   <dimension ref="A1:K888"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A861" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F876" sqref="F876"/>
+      <pane ySplit="1" topLeftCell="A851" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G862" sqref="G862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21829,10 +21838,10 @@
         <v>0</v>
       </c>
       <c r="I866" s="9">
-        <v>5.0049999999999999</v>
+        <v>6.7374999999999998</v>
       </c>
       <c r="J866" s="9">
-        <v>5.0049999999999999</v>
+        <v>6.7374999999999998</v>
       </c>
       <c r="K866" s="8" t="s">
         <v>11</v>
@@ -22002,10 +22011,10 @@
         <v>0</v>
       </c>
       <c r="I873" s="9">
-        <v>0.97499999999999998</v>
+        <v>1.3125</v>
       </c>
       <c r="J873" s="9">
-        <v>0.97499999999999998</v>
+        <v>1.3125</v>
       </c>
       <c r="K873" s="8" t="s">
         <v>11</v>
@@ -22033,10 +22042,10 @@
         <v>0</v>
       </c>
       <c r="I874" s="9">
-        <v>0.65</v>
+        <v>0.875</v>
       </c>
       <c r="J874" s="9">
-        <v>0.65</v>
+        <v>0.875</v>
       </c>
       <c r="K874" s="8" t="s">
         <v>12</v>
@@ -22233,9 +22242,7 @@
       <c r="C882" s="6">
         <v>62</v>
       </c>
-      <c r="D882" s="6">
-        <v>1</v>
-      </c>
+      <c r="D882" s="6"/>
       <c r="E882" s="6"/>
       <c r="F882" s="6"/>
       <c r="G882" s="6"/>
@@ -22253,19 +22260,151 @@
       </c>
     </row>
     <row r="883" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K883" s="10"/>
+      <c r="A883" s="13">
+        <v>45882</v>
+      </c>
+      <c r="B883" s="9">
+        <v>0</v>
+      </c>
+      <c r="C883" s="6"/>
+      <c r="D883" s="6">
+        <v>3</v>
+      </c>
+      <c r="E883" s="6">
+        <v>17</v>
+      </c>
+      <c r="F883" s="6">
+        <v>31</v>
+      </c>
+      <c r="G883" s="6">
+        <v>67</v>
+      </c>
+      <c r="H883" s="9">
+        <v>2.9322930691916365</v>
+      </c>
+      <c r="I883" s="9">
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="J883" s="9">
+        <v>11.507293069191636</v>
+      </c>
+      <c r="K883" s="8" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="884" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K884" s="10"/>
+      <c r="A884" s="13">
+        <v>45883</v>
+      </c>
+      <c r="B884" s="9">
+        <v>0</v>
+      </c>
+      <c r="C884" s="6"/>
+      <c r="D884" s="6">
+        <v>1</v>
+      </c>
+      <c r="E884" s="6"/>
+      <c r="F884" s="6">
+        <v>948</v>
+      </c>
+      <c r="G884" s="6">
+        <v>948</v>
+      </c>
+      <c r="H884" s="9">
+        <v>0</v>
+      </c>
+      <c r="I884" s="9">
+        <v>165.9</v>
+      </c>
+      <c r="J884" s="9">
+        <v>165.9</v>
+      </c>
+      <c r="K884" s="8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="885" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K885" s="10"/>
+      <c r="A885" s="13">
+        <v>45884</v>
+      </c>
+      <c r="B885" s="9">
+        <v>0</v>
+      </c>
+      <c r="C885" s="6"/>
+      <c r="D885" s="6">
+        <v>1</v>
+      </c>
+      <c r="E885" s="6"/>
+      <c r="F885" s="6">
+        <v>480</v>
+      </c>
+      <c r="G885" s="6">
+        <v>480</v>
+      </c>
+      <c r="H885" s="9">
+        <v>0</v>
+      </c>
+      <c r="I885" s="9">
+        <v>84</v>
+      </c>
+      <c r="J885" s="9">
+        <v>84</v>
+      </c>
+      <c r="K885" s="8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="886" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K886" s="10"/>
+      <c r="A886" s="13">
+        <v>45885</v>
+      </c>
+      <c r="B886" s="9">
+        <v>0</v>
+      </c>
+      <c r="C886" s="6"/>
+      <c r="D886" s="6"/>
+      <c r="E886" s="6"/>
+      <c r="F886" s="6"/>
+      <c r="G886" s="6"/>
+      <c r="H886" s="9">
+        <v>0</v>
+      </c>
+      <c r="I886" s="9">
+        <v>0</v>
+      </c>
+      <c r="J886" s="9">
+        <v>0</v>
+      </c>
+      <c r="K886" s="8"/>
     </row>
     <row r="887" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K887" s="10"/>
+      <c r="A887" s="13">
+        <v>45886</v>
+      </c>
+      <c r="B887" s="9">
+        <v>0</v>
+      </c>
+      <c r="C887" s="6"/>
+      <c r="D887" s="6">
+        <v>1</v>
+      </c>
+      <c r="E887" s="6"/>
+      <c r="F887" s="6"/>
+      <c r="G887" s="6">
+        <v>5</v>
+      </c>
+      <c r="H887" s="9">
+        <v>0</v>
+      </c>
+      <c r="I887" s="9">
+        <v>0.4375</v>
+      </c>
+      <c r="J887" s="9">
+        <v>0.4375</v>
+      </c>
+      <c r="K887" s="8" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="888" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K888" s="10"/>
